--- a/legislator/property/output/normal/林佳龍_2013-11-25_財產申報表_tmp426b1.xlsx
+++ b/legislator/property/output/normal/林佳龍_2013-11-25_財產申報表_tmp426b1.xlsx
@@ -340,7 +340,7 @@
     <t>94年09月06曰</t>
   </si>
   <si>
-    <t>0910131091022809103310910430</t>
+    <t>091年01月31曰</t>
   </si>
   <si>
     <t>股東借款予公司</t>
